--- a/medicine/Soins infirmiers et profession infirmière/Histoire_de_la_profession_infirmière/Histoire_de_la_profession_infirmière.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Histoire_de_la_profession_infirmière/Histoire_de_la_profession_infirmière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Histoire_de_la_profession_infirmi%C3%A8re</t>
+          <t>Histoire_de_la_profession_infirmière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’histoire de la profession d'infirmier et d'infirmière montre comment cette profession s'est forgée au cours du temps, souvent de façon empirique, autour de la religion ou d'étapes maîtresses comme les guerres, les besoins évolutifs de la société en matière de santé, de soins de santé mais encore autour de réflexions humanistes, de la prise en compte des besoins sociaux et de l'étude de la psychosociologie.
 La profession d'infirmière et d'infirmier et les soins infirmiers ont évolué avec l'histoire de la médecine et la philosophie des sciences. L'évolution de la profession, largement féminisée au cours des époques, est concomitante du mouvement féministe et de l'histoire des femmes dans le domaine des sciences.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Histoire_de_la_profession_infirmi%C3%A8re</t>
+          <t>Histoire_de_la_profession_infirmière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Moyen Âge pour s'occuper des lépreux, on mettait d'office à contribution des prostituées et divers « pseudos » soignants. Depuis le Ve siècle, les évêques favorisent la création des maisons de malades, de vieillards[réf. nécessaire].
 Après les grandes épidémies, la fonction soignante est repérée et organisée dans la société avec l’apparition du mot « enfermier » en 1398, lui-même dérivé du mot « enfermerie ».
 Les ordres religieux organisèrent la profession à partir du XIIe siècle, selon des critères en lien avec la charité et l'amour de Dieu : le soin est alors bénévole, et n'a qu'une valeur culturelle. Celle ou celui qui le pratique est prise en charge par la structure religieuse : par exemple les religieuses de l'Hôtel-Dieu, les nobles soignant dans les fondations hospitalières, certains frères et sœurs se déplacent à domicile.
-En 1854-1856, les premiers infirmiers et infirmières sont des volontaires pendant la guerre de Crimée menées par Florence Nightingale[1].
+En 1854-1856, les premiers infirmiers et infirmières sont des volontaires pendant la guerre de Crimée menées par Florence Nightingale.
 Le mouvement de laïcisation amorcé en 1878 voit la disparition progressive des religieuses dans les hôpitaux où bientôt elles n'occupent généralement plus que les postes d'encadrement. Il faudra attendre l'émergence d'infirmières et infirmiers laïques et la Première Guerre mondiale pour que se mette définitivement en place un nouveau groupe social.
-En France, le président du Conseil Émile Combes fait publier en 1902 un décret obligeant les préfets à créer des écoles d'infirmiers et infirmières laïques. Désiré-Magloire Bourneville contribue à la professionnalisation du métier et n'appelle plus son « personnel servant ou domestique » mais « infirmiers ou infirmières ». Il préconise de recruter des personnes issues des classes populaires alors que Florence Nightingale souhaite que la profession ait le même niveau d'étude que les médecins[2].
+En France, le président du Conseil Émile Combes fait publier en 1902 un décret obligeant les préfets à créer des écoles d'infirmiers et infirmières laïques. Désiré-Magloire Bourneville contribue à la professionnalisation du métier et n'appelle plus son « personnel servant ou domestique » mais « infirmiers ou infirmières ». Il préconise de recruter des personnes issues des classes populaires alors que Florence Nightingale souhaite que la profession ait le même niveau d'étude que les médecins.
 Jusqu'au début des années 1960, le recrutement s'effectue par des catégories très diverses qui sont antagonistes : infirmières croix rouge, religieuses, infirmières diplômées d'écoles. Après mai 1968, la profession se libérera des concepts d'obéissance, de soumission et de charité. Depuis la fin de la formation spécifique d'infirmier en psychiatrie en 1992, il n'existe en France qu'un seul diplôme d'infirmier : le diplôme d'État d'infirmier.
 			Uniforme dans les années 1850.
 			Uniforme dans les années 1910.
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Histoire_de_la_profession_infirmi%C3%A8re</t>
+          <t>Histoire_de_la_profession_infirmière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,12 +567,14 @@
           <t>XVIIIe siècle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1720 : Thérèse Rastit est considérée comme la première des infirmières de France en raison de son dévouement lors de la Peste de Marseille[3].
-1755 : Charlotte Brown, est nommée infirmière en chef (« matron (en) ») dans la British Army. Elle voyagea avec l'armée d'Edward Braddock. Elle était la femme la mieux payée et la plus respectée dans l'armée. Elle supervisait les infirmières, les blanchisseuses et les cuisinières. Elle a publié un journal de ses mémoires[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1720 : Thérèse Rastit est considérée comme la première des infirmières de France en raison de son dévouement lors de la Peste de Marseille.
+1755 : Charlotte Brown, est nommée infirmière en chef (« matron (en) ») dans la British Army. Elle voyagea avec l'armée d'Edward Braddock. Elle était la femme la mieux payée et la plus respectée dans l'armée. Elle supervisait les infirmières, les blanchisseuses et les cuisinières. Elle a publié un journal de ses mémoires.
 1780 :Les premiers écrits infirmiers concernant leurs patients sont dus aux infirmiers de la Salpêtrière à Paris au sein de l’équipe de  Jean-Baptiste Pussin, Gouvernant des Malades.
-1783 : James Derham, un esclave de La Nouvelle-Orléans achète sa liberté avec de l'argent gagné en travaillant comme infirmier[5].</t>
+1783 : James Derham, un esclave de La Nouvelle-Orléans achète sa liberté avec de l'argent gagné en travaillant comme infirmier.</t>
         </is>
       </c>
     </row>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Histoire_de_la_profession_infirmi%C3%A8re</t>
+          <t>Histoire_de_la_profession_infirmière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,47 +604,290 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1814
-1814 : Anne Biget, religieuse française, se dévoue aux prisonniers et aux blessés lors des guerres napoléoniennes.
-1820
-1820 : Jensey Snow, une ancienne esclave fonde un hôpital à Petersburg en Virginie[6]
-1840
-1844 : Dorothea Dix témoigne dans le cadre de la constitution d'une loi dans le New Jersey en rapport avec les mauvais traitements infligés aux patient en institutions psychiatriques[7].
-1849 : Elizabeth Blackwell diplômée, c'est la première femme docteur[8].
-1850
-1854 : Florence Nightingale, pionnière des soins infirmiers modernes ainsi que 38 infirmières volontaires sont envoyées en Turquie le 21 octobre pour porter soin aux blessés de la guerre de Crimée.
+          <t>1814</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1814 : Anne Biget, religieuse française, se dévoue aux prisonniers et aux blessés lors des guerres napoléoniennes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Histoire_de_la_profession_infirmière</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Histoire_de_la_profession_infirmi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>XIXe siècle</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1820</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1820 : Jensey Snow, une ancienne esclave fonde un hôpital à Petersburg en Virginie</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Histoire_de_la_profession_infirmière</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Histoire_de_la_profession_infirmi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>XIXe siècle</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1840</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1844 : Dorothea Dix témoigne dans le cadre de la constitution d'une loi dans le New Jersey en rapport avec les mauvais traitements infligés aux patient en institutions psychiatriques.
+1849 : Elizabeth Blackwell diplômée, c'est la première femme docteur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Histoire_de_la_profession_infirmière</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Histoire_de_la_profession_infirmi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>XIXe siècle</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1850</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1854 : Florence Nightingale, pionnière des soins infirmiers modernes ainsi que 38 infirmières volontaires sont envoyées en Turquie le 21 octobre pour porter soin aux blessés de la guerre de Crimée.
 1er avril 1856: Naissance de Gabrielle Salvador à Paris.
-1857 : Ellen Ranyard fonde le premier groupe de travailleuses sociales rémunérées en Angleterre. Elle instaure le programme des infirmières de secteur (District Nurse) à Londres[9].
-1859 : La comtesse Valérie de Gasparin et son mari, le comte Agénor de Gasparin, ouvrent  en Suisse, à Lausanne, la première école d’infirmières laïques au monde : La Source
-1860
-1860 : Florence Nightingale publie le premier ouvrage sur la pratique infirmière : Notes on Nursing: What it is and What it is Not[10].
+1857 : Ellen Ranyard fonde le premier groupe de travailleuses sociales rémunérées en Angleterre. Elle instaure le programme des infirmières de secteur (District Nurse) à Londres.
+1859 : La comtesse Valérie de Gasparin et son mari, le comte Agénor de Gasparin, ouvrent  en Suisse, à Lausanne, la première école d’infirmières laïques au monde : La Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Histoire_de_la_profession_infirmière</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Histoire_de_la_profession_infirmi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>XIXe siècle</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1860</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1860 : Florence Nightingale publie le premier ouvrage sur la pratique infirmière : Notes on Nursing: What it is and What it is Not.
 14 novembre 1861 : la Christian Commission fut fondée à New-York.
 1863: Ouverture de la Maison de santé protestante de Bordeaux (MSP).
 22 mai 1864 : Naissance de Anna Hamilton à Fiesole en Italie.
 25 mai 1864: Une des trois sociétés de Croix-Rouge : Société française de secours aux blessés militaires (SSBM).
-1867 : Jane Currie Blaikie Hoge publie ses mémoires sur sa pratique en tant qu'infirmière dans l'Union Army : The Boys in Blue[10].
-1870
-6 janvier 1873 : Naissance de Léonie Chaptal.
+1867 : Jane Currie Blaikie Hoge publie ses mémoires sur sa pratique en tant qu'infirmière dans l'Union Army : The Boys in Blue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Histoire_de_la_profession_infirmière</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Histoire_de_la_profession_infirmi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>XIXe siècle</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1870</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>6 janvier 1873 : Naissance de Léonie Chaptal.
 25 juillet 1873 : Naissance de Anne Morgan à Highland Falls, dans l’État de New York. Elle est fille du banquier John Pierpont Morgan et de Frances Louisa Tracy Morgan.
 1876 : Reconnaissance d’utilité publique de la MSP.
-1876 : Le terme japonais 看護婦 (kangofu pour infirmière) est utilisé pour la première fois[11].
+1876 : Le terme japonais 看護婦 (kangofu pour infirmière) est utilisé pour la première fois.
 7 août 1877 : Naissance de Jeanne de Joannis à Bilbao (Espagne).
 25 mars 1878 : Gabrielle Salvador épouse à Paris Émile Alphen, un très riche banquier.
-1878 :  Création en France des premiers cours municipaux le soir après leur journée de travail pour infirmière à l’hôpital de la Salpêtrière[12].
-1879 : Mary Eliza Mahoney sort diplômée du New England Hospital for Women and Children Training School for Nurses et devient la première infirmière afro-américaine aux États-Unis[13].
-1879: Une des trois sociétés de la Croix-Rouge : Association des Dames françaises (ADF).
-1880
-31 mai 1880 : Naissance de Juliette Delagrange à Besançon (Doubs).
+1878 :  Création en France des premiers cours municipaux le soir après leur journée de travail pour infirmière à l’hôpital de la Salpêtrière.
+1879 : Mary Eliza Mahoney sort diplômée du New England Hospital for Women and Children Training School for Nurses et devient la première infirmière afro-américaine aux États-Unis.
+1879: Une des trois sociétés de la Croix-Rouge : Association des Dames françaises (ADF).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Histoire_de_la_profession_infirmière</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Histoire_de_la_profession_infirmi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>XIXe siècle</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1880</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>31 mai 1880 : Naissance de Juliette Delagrange à Besançon (Doubs).
 1881 : Clara Barton devient la première présidente de l'American Red Cross qu'elle fonda le 21 mai.
 juin 1881 : Une des trois sociétés de Croix-Rouge : Union des femmes de France (UFF).
 29 juin 1884 : Naissance de Marie de Liron d'Airoles à Saint-Hilaire-sur-Benaize (Indre).
 1884 : Mary Agnes Snively, la première infirmière formée selon les conceptions de Florence Nightingale, prend la responsabilité de « Lady Superintendent » du Toronto General Hospital’s School of Nursing.
-1885 : La première école d'infirmière voit le jour au Japon[11].
-1886 : La première revue relative aux soins infirmiers, The Nightingale, est publié aux États-Unis[14].
+1885 : La première école d'infirmière voit le jour au Japon.
+1886 : La première revue relative aux soins infirmiers, The Nightingale, est publié aux États-Unis.
 22 décembre 1887 : Naissance de Thérèse Matter à Rouen (Seine-Maritime).
-1888 : Le mensuel The Trained Nurse est publié pour la première fois dans l’État de New York[15].
-1890
-1880 : ouverture de la première école d'infirmiers et d'infirmières laïques de Bruxelles dirigée par César de Paepe puis par Octavie Docquier-Fauquet
+1888 : Le mensuel The Trained Nurse est publié pour la première fois dans l’État de New York.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Histoire_de_la_profession_infirmière</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Histoire_de_la_profession_infirmi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>XIXe siècle</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1890</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1880 : ouverture de la première école d'infirmiers et d'infirmières laïques de Bruxelles dirigée par César de Paepe puis par Octavie Docquier-Fauquet
 29 avril 1891 : Naissance de Antoinette Hervey à Paris.
 12 août 1891 : Naissance de Éva Durrleman à Rochefort (Charente-Maritime).
 24 septembre 1892 : Naissance de Marcelle Monod à Arcachon (Gironde).
@@ -637,40 +896,45 @@
 1894 : Naissance de Élisabeth Rouffiac à Fontainebleau en Seine-et-Marne.
 19 janvier 1894 : Naissance de Madeleine Seltzer à Souma en Algérie
 1897 : L’Association nord-américaine des infirmières (nommée aujourd'hui ANA) tient sa première conférence regroupant infirmières américaines et canadiennes.
-1897 : Jane Delano devient « Superintendent » au Bellevue Hospital[16].
-1899 : Le Japon établit un système d'enseignement pour l'enseignement des soins infirmiers modernes, avec notamment la Midwives Ordinance[11].
+1897 : Jane Delano devient « Superintendent » au Bellevue Hospital.
+1899 : Le Japon établit un système d'enseignement pour l'enseignement des soins infirmiers modernes, avec notamment la Midwives Ordinance.
 1899 : Création du Conseil international des infirmières.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Histoire_de_la_profession_infirmi%C3%A8re</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Histoire_de_la_profession_infirmi%C3%A8re</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Histoire_de_la_profession_infirmière</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Histoire_de_la_profession_infirmi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>XXe siècle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1900
-1900 : Thèse de doctorat de médecine d'Anna Hamilton, Considérations sur les infirmières des  hôpitaux. Le Dr Anna Hamilton prend la direction de la Maison de santé protestante de Bordeaux ainsi que de son école. C'est le premier hôpital-école en France sur le modèle de ceux de Florence Nightingale[17].
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1900</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1900 : Thèse de doctorat de médecine d'Anna Hamilton, Considérations sur les infirmières des  hôpitaux. Le Dr Anna Hamilton prend la direction de la Maison de santé protestante de Bordeaux ainsi que de son école. C'est le premier hôpital-école en France sur le modèle de ceux de Florence Nightingale.
 1900 : Gabrielle Alphen-Salvador participe au Congrès des institutions féminines chrétiennes, qui regroupe quarante associations et réunit 30 000 personnes.
 1900 : Gabrielle Alphen-Salvador participe à la création et au financement de l’Association d’assistance aux malades (Adam), rue Amyot à Paris 5e.
 1900-1920 :  Gabrielle Alphen-Salvador présidente de l’Adam.
@@ -691,17 +955,51 @@
 1906 : L'hôpital américain de Paris est un groupement hospitalier franco-américain soutenu par une fondation privée à but non lucratif, Neuilly-sur-Seine.
 1906-1914 : Revue mensuelle illustrée professionnelle de la docteure Anna Hamilton : La Garde-Malade hospitalière, tirée à 1000 exemplaires. Diffusion internationale.
 1906: Ministère regroupant Travail et Prévoyance sociale.
-1907 : Inauguration de la nouvelle école d'infirmière de l'Assistance publique à la Salpêtrière[12].
+1907 : Inauguration de la nouvelle école d'infirmière de l'Assistance publique à la Salpêtrière.
 1907 : Congrès de l'International Council of Nurses (ICN) à Paris avec 300 nurses du monde entier. La France délègue quelques médecins de l’Assistance Publique de Paris. Présence de Anna Hamilton, Léonie Chaptal et Gabrielle Alphen-Salvador. Visite de la Maison-école de Léonie Chaptal, de la MSP, de l’école de la rue Amyot (Adam) de Gabrielle Alphen-Salvador.
 1907 : Anne Morgan avec les Américaines Elsie de Wolfe, Mary Parsons et sa sœur Mrs Borden Harriman achètent une villa à Versailles.
 1907 : Adelaide Nutting (1858-1948) et Lavinia Lloyd Dock (1858-1956) publient History of Nursing, qui n’a jamais été traduit en français.
 1908 : Mlle Lamarou, garde-malade hospitalière diplômée de la MSP, fait du visiting nursing à Bordeaux (Gironde).
-1909 : Le département des soins infirmiers est créé dans la Croix-Rouge américaine[18].
-1909 : L’université du Minnesota (University of Minnesota) accorde le premier la première licence en soins infirmiers, établissant un nouveau standard en matière d'apprentissage du métier.
-1910
-1910 : Avec Mrs August Belmont, Anne Morgan crée l’association Working Girls Vacation Association, d’où est issue, après la guerre, l’American Women’s Association.
+1909 : Le département des soins infirmiers est créé dans la Croix-Rouge américaine.
+1909 : L’université du Minnesota (University of Minnesota) accorde le premier la première licence en soins infirmiers, établissant un nouveau standard en matière d'apprentissage du métier.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Histoire_de_la_profession_infirmière</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Histoire_de_la_profession_infirmi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1910</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1910 : Avec Mrs August Belmont, Anne Morgan crée l’association Working Girls Vacation Association, d’où est issue, après la guerre, l’American Women’s Association.
 1910-1913 : Jeanne de Joannis directrice de l’Adam.
-1911 : L'association des infirmières canadiennes est fondée[19].
+1911 : L'association des infirmières canadiennes est fondée.
 27 juin 1912 - 7 juin 1914 : Marcelle Monod étudie à la MSP.
 1913 : Léonie Chaptal siège au Conseil supérieur de l’assistance publique (CSAP).
 1913 : Au Congrès international des femmes qui se tient à Paris, Marie Diémer et Renée de Montmort siègent à la section Hygiène et Social.
@@ -735,9 +1033,43 @@
 1919 : Juliette Delagrange inspectrice déléguée du ministère des Régions libérées pour l’hygiène et l’assistance aux populations pour le département du Nord, à la préfecture de Lille (Nord).
 1919 : L’hôpital-école Edith Cavell devient l’École de puériculture de la faculté de médecine de Paris grâce à une dotation de la Croix-Rouge américaine.
 1919 : Marcelle Monod est avec Élisabeth Rouffiac une des seize infirmières visiteuses françaises engagées par le Card.
-1919-1920 : Jeanne de Joannis reprend son poste de directrice de l’Adam.
-1920
-15 juin 1920 : mort de Gabrielle Alphen-Salvador à Ballan-Miré (Indre-et-Loire).
+1919-1920 : Jeanne de Joannis reprend son poste de directrice de l’Adam.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Histoire_de_la_profession_infirmière</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Histoire_de_la_profession_infirmi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>15 juin 1920 : mort de Gabrielle Alphen-Salvador à Ballan-Miré (Indre-et-Loire).
 1920-1921 : Julie Siegfried présidente de l’Adam.
 1920: Ministère de l’Hygiène, de l’Assistance et de la Prévoyance sociale.
 1921 : Marcelle Monod bénéficie d’une bourse pour compléter ses études aux États-Unis.
@@ -749,7 +1081,7 @@
 Juillet 1921 : Marie de Liron d’Airoles rassemble un cercle d’une vingtaine d’infirmières catholiques venues d’horizons divers, autour du nom de Geneviève Hennet de Goutel. Ce cercle devient l’embryon d’une association professionnelle : l’Union catholique des services de santé (UCSS).
 1921-1922 : Madeleine Seltzer est cheftaine à l’école de la MSP.
 1921 : Sophie Mannerheim, une pionnière des soins infirmiers modernes en Finlande accepte la présidence de la Croix-Rouge finlandaise.
-1er juillet 1922 : un décret organise la profession d’infirmière en instituant un brevet de capacité professionnelle permettant de porter le titre d’infirmière diplômée de l’État français[20]. La création d’un Conseil de perfectionnement des écoles d'infirmières découle de l’application du décret du 27 juin 1922 instituant le diplôme d’État d’infirmière et de visiteuse. Sous la présidence du Pr Maurice Letulle (1853-1929) et la vice-présidence de Léonie Chaptal, membre du Conseil supérieur de l'Assistance publique.
+1er juillet 1922 : un décret organise la profession d’infirmière en instituant un brevet de capacité professionnelle permettant de porter le titre d’infirmière diplômée de l’État français. La création d’un Conseil de perfectionnement des écoles d'infirmières découle de l’application du décret du 27 juin 1922 instituant le diplôme d’État d’infirmière et de visiteuse. Sous la présidence du Pr Maurice Letulle (1853-1929) et la vice-présidence de Léonie Chaptal, membre du Conseil supérieur de l'Assistance publique.
 Janvier 1922 : La Dame à la Lampe, bulletin de l’école Florence-Nightingale, trait d’union entre les diplômées de la MSP, tiré à mille exemplaires. Ce bulletin s’arrête au N° 36 en décembre 1924 pour des raisons financières.
 1922 : Elisabeth Rouffiac revient travailler à Soissons (Aisne) avec le Card.
 1922 : Juliette Delagrange devient présidente de l’Association des travailleuses sociales (ATS).
@@ -761,7 +1093,7 @@
 1923 : Thérèse Matter et Éva Durrleman deviennent membres de l’Anidef, fondée par Léonie Chaptal.
 1923 : l’Union catholique des services de santé (UCSS) hébergée à la Maison des œuvres, 175, boulevard Saint-Germain à Paris 6e.
 1923 : au Card, Marcelle Monod dispose comme chaque infirmière visiteuse d’une camionnette Ford. Elle a en responsabilité un certain nombre de villages de l’Aisne, où elle s’occupe aussi bien des femmes enceintes que des enfants et des vieillards.
-1923 : Le département soins infirmiers de Yale aux États-Unis devient la première école indépendante. Il base son enseignement sur un cursus universitaire[21].
+1923 : Le département soins infirmiers de Yale aux États-Unis devient la première école indépendante. Il base son enseignement sur un cursus universitaire.
 22 juin 1924 : Léonie Chaptal fonde l’Association nationale des infirmières diplômées de l’Etat français (Anidef).
 1924 : Antoinette Hervey rejoint Léonie Chaptal à l’Anidef.
 1924-1928 : Marguerite Oelker, diplômée de l’école professionnelle de l’Adam, est directrice de l’AHSA à Soissons (Aisne).
@@ -778,13 +1110,47 @@
 1928 : mort de Anne Murray Dike en France, où elle est enterrée.
 Juillet 1928 - 26 octobre 1945 : Élisabeth Rouffiac succède à Marguerite Oelker à la direction de l’AHSA à Soissons (Aisne).
 1928 : le Bulletin trimestriel de l’école Florence Nightingale, qui devient en janvier 1933 Bagatelle.
-1929 : L'association des infirmières au Japon est fondée[11].
+1929 : L'association des infirmières au Japon est fondée.
 1929 : Léonie Chaptal prend la revue L’Infirmière française entièrement à sa charge. Cette revue devient l’organe officiel de l’Anidef.
 29 septembre 1929 : inauguration de la nouvelle Maison-Ecole d'Infirmières Privées de Léonie Chaptal place de la Porte-de-Vanves à Paris.
 1929 : congrès de l’ICN à Montréal. Léonie Chaptal en est élue présidente.
-Octobre 1929 : la MSP ouvre l’école Alexis Soyer pour préparer des économes hospitalières.
-1930
-1930 : Madeleine et Éveline Seltzer créent le sanatorium Chantoiseau-fondation Édith-Seltzer à Briançon (Hautes-Alpes), destiné aux infirmières ayant contracté la tuberculose en service actif.
+Octobre 1929 : la MSP ouvre l’école Alexis Soyer pour préparer des économes hospitalières.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Histoire_de_la_profession_infirmière</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Histoire_de_la_profession_infirmi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1930 : Madeleine et Éveline Seltzer créent le sanatorium Chantoiseau-fondation Édith-Seltzer à Briançon (Hautes-Alpes), destiné aux infirmières ayant contracté la tuberculose en service actif.
 Septembre 1930 : A la conférence de Caritas catholica de Bâle, Marie d’Airoles prend la tête d’un groupe qui décide de la création du Comité international catholique des infirmières et assistantes médico-sociales (Ciciams) regroupant des hospitalières, des visiteuses, des travailleuses sociales et des surintendantes.
 1930-1939 : L’UCSS publie les Pages documentaires (bimensuel).
 1930 : Ministère de la Santé publique
@@ -800,18 +1166,17 @@
 1933-1947 : Madeleine Seltzer est directrice de Chantoiseau.
 1933-1937 : Marie d’Airoles présidente du Ciciams.
 19 octobre 1935 : Décès de Anna Hamilton à Bagatelle Talence.
-1936 : Début de la guerre d'Espagne, conflit durant lequel les infirmières jouent un rôle prépondérant, comme la Madrilène Trinidad Gallego Prieto, les Catalanes Conxa Pérez Collado et Teresa Rebull ou encore l'Américaine Salaria Kea[22]. Certaines y perdent la vie : Pepita Laguarda Batet tuée sur le front d'Aragon et Anita Orejas, exécutée par les troupes franquistes dans les Asturies[23]. L'infirmière Ángeles Flórez Peón, dite Maricuela, est considérée comme la dernière milicienne survivante de la guerre civile espagnole[24].
+1936 : Début de la guerre d'Espagne, conflit durant lequel les infirmières jouent un rôle prépondérant, comme la Madrilène Trinidad Gallego Prieto, les Catalanes Conxa Pérez Collado et Teresa Rebull ou encore l'Américaine Salaria Kea. Certaines y perdent la vie : Pepita Laguarda Batet tuée sur le front d'Aragon et Anita Orejas, exécutée par les troupes franquistes dans les Asturies. L'infirmière Ángeles Flórez Peón, dite Maricuela, est considérée comme la dernière milicienne survivante de la guerre civile espagnole.
 12 septembre 1936 : Décès de Juliette Delagrange à Paris.
 1936-1947 : Marcelle Monod dirige la Maison de santé évangélique de Nîmes.
 28 mars 1937 : Décès de Léonie Chaptal à Paris.
 1937 : Le second congrès du Ciciams a lieu à Londres, en terre protestante anglo-saxonne.
 1937-1948 : Jeanne de Joannis présidente de l’Anidef.
 1938 : Marie d’Airoles commente la nouvelle formation médico-sociale qui fusionne celles d’infirmière visiteuse et d’assistante sociale. Les nouvelles assistantes sociales doivent suivre une première année d’études médicales pour infirmières, la seconde année étant consacrée à leur formation sociale. L’UCSS a réussi à imposer sa vision médico-sociale contre celle du social pur.
-1938 : Le Nurses Memorial est érigé aux États-Unis à la mémoire des quelque 600 infirmières qui ont servi durant la Première Guerre mondiale[16].
+1938 : Le Nurses Memorial est érigé aux États-Unis à la mémoire des quelque 600 infirmières qui ont servi durant la Première Guerre mondiale.
 1939 : L’UCSS a 14 000 adhérentes.
 1939 : Anne Morgan est en France.
-30 septembre 1939 : Anne Morgan organise et préside le comité American Friends of France aux Etats-Unis et le Comité américain de secours civil (Casc).
-1940</t>
+30 septembre 1939 : Anne Morgan organise et préside le comité American Friends of France aux Etats-Unis et le Comité américain de secours civil (Casc).</t>
         </is>
       </c>
     </row>
